--- a/data.xlsx
+++ b/data.xlsx
@@ -1415,15 +1415,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>nama</t>
         </is>
